--- a/assets/files/product-registration/import-product/productMst_format.xlsx
+++ b/assets/files/product-registration/import-product/productMst_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotakesaki/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotakesaki/Desktop/案件/大木建設様/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EEC2D2-5293-3C4E-849E-8A4CA79C54CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE729C-5EA4-E040-9269-A14A1883B5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34540" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インポート" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>物件コード</t>
   </si>
@@ -80,6 +80,20 @@
   </si>
   <si>
     <t>ステータス</t>
+  </si>
+  <si>
+    <t>設計基準強度１</t>
+    <rPh sb="0" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計基準強度２</t>
+    <rPh sb="0" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1302,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="18" customHeight="1"/>
@@ -1319,17 +1333,20 @@
     <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" style="1" customWidth="1"/>
-    <col min="11" max="14" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="15.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="22" style="1"/>
+    <col min="11" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="15.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" customHeight="1">
+    <row r="1" spans="1:22" ht="16" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1367,31 +1384,37 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16" customHeight="1">
+    <row r="2" spans="1:22" ht="16" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1409,11 +1432,13 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:20" ht="16" customHeight="1">
+    <row r="3" spans="1:22" ht="16" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1431,11 +1456,13 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:20" ht="16" customHeight="1">
+    <row r="4" spans="1:22" ht="16" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1453,11 +1480,13 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="16" customHeight="1">
+    <row r="5" spans="1:22" ht="16" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1475,11 +1504,13 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="16" customHeight="1">
+    <row r="6" spans="1:22" ht="16" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1497,11 +1528,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="16" customHeight="1">
+    <row r="7" spans="1:22" ht="16" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1519,11 +1552,13 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="16" customHeight="1">
+    <row r="8" spans="1:22" ht="16" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1541,11 +1576,13 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:20" ht="16" customHeight="1">
+    <row r="9" spans="1:22" ht="16" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1563,11 +1600,13 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="16" customHeight="1">
+    <row r="10" spans="1:22" ht="16" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1585,11 +1624,13 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:20" ht="16" customHeight="1">
+    <row r="11" spans="1:22" ht="16" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1607,9 +1648,11 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
